--- a/biology/Médecine/ErgoSanté/ErgoSanté.xlsx
+++ b/biology/Médecine/ErgoSanté/ErgoSanté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ErgoSant%C3%A9</t>
+          <t>ErgoSanté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">ErgoSanté est un fabricant français de meubles de bureau ergonomiques et d'exosquelettes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ErgoSant%C3%A9</t>
+          <t>ErgoSanté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'entreprise est créée en 2013 à Anduze (Gard), où est encore situé son siège social[1].
-Après le Brexit, la production réalisée en majorité en Angleterre est relocalisée en France[2]. Par la suite, l'entreprise a ouvert en octobre 2023 un site de production aux États-Unis, à Wilmington (Caroline du Nord). Elle a l’objectif de réaliser la moitié de son chiffre d’affaires sur le marché américain en 2028[1].
-L'entreprise a le statut d'entreprise adaptée[3], et la filiale chargée de la production des produits compte 80 % de personnel en situation de handicap[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'entreprise est créée en 2013 à Anduze (Gard), où est encore situé son siège social.
+Après le Brexit, la production réalisée en majorité en Angleterre est relocalisée en France. Par la suite, l'entreprise a ouvert en octobre 2023 un site de production aux États-Unis, à Wilmington (Caroline du Nord). Elle a l’objectif de réaliser la moitié de son chiffre d’affaires sur le marché américain en 2028.
+L'entreprise a le statut d'entreprise adaptée, et la filiale chargée de la production des produits compte 80 % de personnel en situation de handicap.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ErgoSant%C3%A9</t>
+          <t>ErgoSanté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ErgoSanté commercialise des exosquelettes passifs (qui ne consomment pas d'électricité) pour des salariés pouvant être exposés à des tâches répétitives ou pénibles, notamment debout, ce qui inclut les secteurs du BTP, de l'industrie ou du médico-social[1]. Un test auprès d'infirmières et d'aides-soignantes du centre hospitalier d'Alès est effectué[4]. Parmi les clients figurent notamment Sanofi, Airbus, Mars, Ford, la SNCF et LVMH[1]. Le prix de vente est autour de 1.500 dollars l'unité[4].
-La société revendique 8 000 aménagements de postes par an[2]. 
-La PME créée une filière de recyclage des sièges de bureau[5]. Elle propose une application gratuite d'analyse posturale, permettant d'analyser les mouvements du corps et d'objectiver la prévention des troubles musculosquelettiques[6]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ErgoSanté commercialise des exosquelettes passifs (qui ne consomment pas d'électricité) pour des salariés pouvant être exposés à des tâches répétitives ou pénibles, notamment debout, ce qui inclut les secteurs du BTP, de l'industrie ou du médico-social. Un test auprès d'infirmières et d'aides-soignantes du centre hospitalier d'Alès est effectué. Parmi les clients figurent notamment Sanofi, Airbus, Mars, Ford, la SNCF et LVMH. Le prix de vente est autour de 1.500 dollars l'unité.
+La société revendique 8 000 aménagements de postes par an. 
+La PME créée une filière de recyclage des sièges de bureau. Elle propose une application gratuite d'analyse posturale, permettant d'analyser les mouvements du corps et d'objectiver la prévention des troubles musculosquelettiques. 
 </t>
         </is>
       </c>
